--- a/PEERREVIEW/Application.xlsx
+++ b/PEERREVIEW/Application.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="review" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">review!$B$2:$H$20</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -55,28 +55,36 @@
     <t>The first char isn't correct</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>TransactionItem</t>
-  </si>
-  <si>
-    <t>TransactionMgr</t>
-  </si>
-  <si>
-    <t>TransactionDao</t>
+    <t>fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreApplication</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.dat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.bat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -89,12 +97,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,23 +143,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -161,30 +154,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -483,6 +473,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -515,15 +506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="2" customWidth="1"/>
@@ -536,7 +526,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6.75" customHeight="1"/>
+    <row r="1" spans="2:8" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:8">
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -577,12 +567,14 @@
       <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="6">
-        <f t="shared" ref="B4:B20" si="0">ROW()-2</f>
+        <f t="shared" ref="B4" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -597,12 +589,14 @@
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B5:B20" si="1">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
@@ -614,7 +608,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="6"/>
@@ -626,7 +620,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="6"/>
@@ -638,7 +632,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="6"/>
@@ -650,7 +644,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="6"/>
@@ -662,7 +656,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="6"/>
@@ -674,7 +668,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="6"/>
@@ -686,7 +680,7 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
@@ -698,7 +692,7 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="6"/>
@@ -710,7 +704,7 @@
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="6"/>
@@ -722,7 +716,7 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="6"/>
@@ -734,7 +728,7 @@
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="6"/>
@@ -746,7 +740,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="6"/>
@@ -758,7 +752,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -770,7 +764,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="6"/>
@@ -782,7 +776,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="6">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="6"/>
@@ -837,30 +831,35 @@
       <c r="G25" s="9"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="2:8">
       <c r="C28" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="C30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="32" spans="2:8">
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:H20"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>